--- a/ebegu-server/src/main/resources/reporting/Kinder.xlsx
+++ b/ebegu-server/src/main/resources/reporting/Kinder.xlsx
@@ -429,9 +429,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -459,8 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -878,8 +878,8 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
@@ -911,31 +911,31 @@
       <c r="E6" s="10"/>
     </row>
     <row r="8" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="23"/>
@@ -943,141 +943,141 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="31" t="s">
+      <c r="T8" s="33"/>
+      <c r="U8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="37" t="s">
+      <c r="V8" s="33"/>
+      <c r="W8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="37" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="Q9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="33" t="s">
+      <c r="S9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="33" t="s">
+      <c r="T9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="33" t="s">
+      <c r="U9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="33" t="s">
+      <c r="V9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="37" t="s">
+      <c r="W9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="37" t="s">
+      <c r="X9" s="38" t="s">
         <v>5</v>
       </c>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
-      <c r="AA9" s="37" t="s">
+      <c r="AA9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AB9" s="37" t="s">
+      <c r="AB9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37" t="s">
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
       <c r="Y10" s="20" t="s">
         <v>33</v>
       </c>
       <c r="Z10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="37"/>
+      <c r="AA10" s="38"/>
       <c r="AB10" s="12" t="s">
         <v>25</v>
       </c>
@@ -1189,7 +1189,7 @@
         <f>NETWORKDAYS(W11,X11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA11" s="30" t="e">
+      <c r="AA11" s="29" t="e">
         <f>Z11/Y11</f>
         <v>#VALUE!</v>
       </c>
@@ -1205,8 +1205,8 @@
       <c r="AE11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AF11" s="28" t="e">
-        <f>IF(AD11&gt;0,AA11/AD11,0)</f>
+      <c r="AF11" s="41" t="e">
+        <f>AD11*AA11</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG11" s="19" t="s">
@@ -1215,10 +1215,10 @@
       <c r="AH11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AI11" s="40" t="s">
+      <c r="AI11" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AJ11" s="41" t="s">
+      <c r="AJ11" s="31" t="s">
         <v>64</v>
       </c>
     </row>

--- a/ebegu-server/src/main/resources/reporting/Kinder.xlsx
+++ b/ebegu-server/src/main/resources/reporting/Kinder.xlsx
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -433,6 +433,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -442,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,16 +460,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -830,7 +829,7 @@
   <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -853,7 +852,8 @@
     <col min="31" max="31" width="19.42578125"/>
     <col min="32" max="32" width="16.85546875"/>
     <col min="33" max="35" width="12.7109375"/>
-    <col min="36" max="990" width="10.5703125"/>
+    <col min="36" max="36" width="13.5703125" customWidth="1"/>
+    <col min="37" max="990" width="10.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="21">
@@ -911,31 +911,31 @@
       <c r="E6" s="10"/>
     </row>
     <row r="8" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="23"/>
@@ -943,141 +943,141 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="32" t="s">
+      <c r="T8" s="36"/>
+      <c r="U8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="33"/>
-      <c r="W8" s="38" t="s">
+      <c r="V8" s="36"/>
+      <c r="W8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="38" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="U9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="V9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="38" t="s">
+      <c r="W9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="32" t="s">
         <v>5</v>
       </c>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
-      <c r="AA9" s="38" t="s">
+      <c r="AA9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AB9" s="38" t="s">
+      <c r="AB9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38" t="s">
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
       <c r="Y10" s="20" t="s">
         <v>33</v>
       </c>
       <c r="Z10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="38"/>
+      <c r="AA10" s="32"/>
       <c r="AB10" s="12" t="s">
         <v>25</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="AE11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AF11" s="41" t="e">
+      <c r="AF11" s="29" t="e">
         <f>AD11*AA11</f>
         <v>#VALUE!</v>
       </c>
@@ -1254,12 +1254,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="G8:K8"/>
@@ -1276,15 +1279,12 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="AG9:AI9"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="AA9:AA10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/ebegu-server/src/main/resources/reporting/Kinder.xlsx
+++ b/ebegu-server/src/main/resources/reporting/Kinder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="606"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Parameter</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Kinder</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>{betreuungsStatus}</t>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -433,32 +439,35 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -826,10 +835,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+      <selection activeCell="Y1" sqref="Y1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -846,17 +855,18 @@
     <col min="23" max="24" width="12.7109375"/>
     <col min="25" max="25" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="16" hidden="1" customWidth="1"/>
-    <col min="27" max="28" width="12.7109375"/>
-    <col min="29" max="29" width="16.85546875"/>
-    <col min="30" max="30" width="12.7109375"/>
-    <col min="31" max="31" width="19.42578125"/>
-    <col min="32" max="32" width="16.85546875"/>
-    <col min="33" max="35" width="12.7109375"/>
-    <col min="36" max="36" width="13.5703125" customWidth="1"/>
-    <col min="37" max="990" width="10.5703125"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="28" max="29" width="12.7109375"/>
+    <col min="30" max="30" width="16.85546875"/>
+    <col min="31" max="31" width="12.7109375"/>
+    <col min="32" max="32" width="19.42578125"/>
+    <col min="33" max="33" width="16.85546875"/>
+    <col min="34" max="36" width="12.7109375"/>
+    <col min="37" max="37" width="13.5703125" customWidth="1"/>
+    <col min="38" max="991" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="21">
+    <row r="1" spans="1:37" ht="21">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -866,10 +876,10 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -880,8 +890,9 @@
       <c r="F3" s="4"/>
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AA3" s="28"/>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -890,7 +901,7 @@
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -899,7 +910,7 @@
       </c>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -910,32 +921,32 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="8" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:37" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="23"/>
@@ -943,167 +954,172 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="36"/>
-      <c r="U8" s="35" t="s">
+      <c r="T8" s="33"/>
+      <c r="U8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="36"/>
-      <c r="W8" s="32" t="s">
+      <c r="V8" s="33"/>
+      <c r="W8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-    </row>
-    <row r="9" spans="1:36" ht="15" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="32" t="s">
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="37" t="s">
+      <c r="U9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="37" t="s">
+      <c r="V9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="W9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="32" t="s">
+      <c r="X9" s="38" t="s">
         <v>5</v>
       </c>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
-      <c r="AA9" s="32" t="s">
+      <c r="AA9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AB9" s="32" t="s">
+      <c r="AC9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32" t="s">
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
       <c r="Y10" s="20" t="s">
         <v>33</v>
       </c>
       <c r="Z10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="12" t="s">
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AC10" s="12" t="s">
+      <c r="AD10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AD10" s="12" t="s">
+      <c r="AE10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AE10" s="12" t="s">
+      <c r="AF10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AG10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AG10" s="12" t="s">
+      <c r="AH10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AH10" s="12" t="s">
+      <c r="AI10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AI10" s="12" t="s">
+      <c r="AJ10" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
@@ -1189,45 +1205,48 @@
         <f>NETWORKDAYS(W11,X11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA11" s="29" t="e">
+      <c r="AA11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB11" s="29" t="e">
         <f>Z11/Y11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB11" s="26" t="s">
+      <c r="AC11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="AC11" s="26" t="s">
+      <c r="AD11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" s="26" t="s">
+      <c r="AE11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AE11" s="19" t="s">
+      <c r="AF11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AF11" s="29" t="e">
-        <f>AD11*AA11</f>
+      <c r="AG11" s="29" t="e">
+        <f>AE11*AB11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG11" s="19" t="s">
+      <c r="AH11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AH11" s="19" t="s">
+      <c r="AI11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AI11" s="30" t="s">
+      <c r="AJ11" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AJ11" s="31" t="s">
+      <c r="AK11" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -1235,7 +1254,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="I16" s="7"/>
       <c r="W16" s="7"/>
     </row>
@@ -1253,20 +1272,18 @@
       <c r="R23" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
+  <mergeCells count="32">
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="G8:K8"/>
-    <mergeCell ref="W8:AI8"/>
+    <mergeCell ref="W8:AJ8"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
@@ -1277,14 +1294,17 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AH9:AJ9"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/ebegu-server/src/main/resources/reporting/Kinder.xlsx
+++ b/ebegu-server/src/main/resources/reporting/Kinder.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\A$\reporting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="606"/>
+    <workbookView xWindow="1950" yWindow="720" windowWidth="16380" windowHeight="8190" tabRatio="606"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -234,11 +239,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -382,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -396,7 +401,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,7 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -427,7 +430,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -544,13 +546,21 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -588,9 +598,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,9 +632,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,9 +667,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -831,17 +843,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Z1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.7109375"/>
     <col min="3" max="3" width="15.7109375" style="1"/>
@@ -866,7 +878,7 @@
     <col min="38" max="991" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -876,10 +888,10 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -888,11 +900,11 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -901,7 +913,7 @@
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -910,366 +922,336 @@
       </c>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
-    <row r="8" spans="1:37" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:37" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="32" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="32" t="s">
+      <c r="T8" s="30"/>
+      <c r="U8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="33"/>
-      <c r="W8" s="38" t="s">
+      <c r="V8" s="30"/>
+      <c r="W8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
     </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="38" t="s">
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="U9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="V9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="38" t="s">
+      <c r="W9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="40" t="s">
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AB9" s="38" t="s">
+      <c r="AB9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="38" t="s">
+      <c r="AC9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38" t="s">
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
     </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="20" t="s">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="21" t="s">
+      <c r="Z10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="12" t="s">
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AD10" s="12" t="s">
+      <c r="AD10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="12" t="s">
+      <c r="AE10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AF10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AG10" s="12" t="s">
+      <c r="AG10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AH10" s="12" t="s">
+      <c r="AH10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AI10" s="12" t="s">
+      <c r="AI10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AJ10" s="12" t="s">
+      <c r="AJ10" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="27" t="e">
+      <c r="K11" s="24" t="e">
         <f>IF(W11&lt;=EOMONTH(I11,12),"X","")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="27" t="e">
+      <c r="O11" s="24" t="e">
         <f>IF(W11&lt;=EOMONTH(I11,12),"X","")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P11" s="27" t="e">
+      <c r="P11" s="24" t="e">
         <f>IF(AND(W11&gt;=EOMONTH(I11,13),W11&lt;=EOMONTH(I11,48)),"X","")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q11" s="27" t="e">
+      <c r="Q11" s="24" t="e">
         <f>IF(AND(W11&gt;=EOMONTH(I11,48),W11&lt;=EOMONTH(I11,72)),"X","")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R11" s="27" t="e">
+      <c r="R11" s="24" t="e">
         <f>IF(W11&gt;=EOMONTH(I11,73),"X","")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="V11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="25" t="e">
+      <c r="Y11" s="22" t="e">
         <f>NETWORKDAYS((W11-DAY(W11)+1),(EOMONTH(W11,0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Z11" s="25" t="e">
+      <c r="Z11" s="22" t="e">
         <f>NETWORKDAYS(W11,X11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AB11" s="29" t="e">
+      <c r="AB11" s="26" t="e">
         <f>Z11/Y11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC11" s="26" t="s">
+      <c r="AC11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AD11" s="26" t="s">
+      <c r="AD11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="26" t="s">
+      <c r="AE11" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AF11" s="19" t="s">
+      <c r="AF11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AG11" s="29" t="e">
+      <c r="AG11" s="26" t="e">
         <f>AE11*AB11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AH11" s="19" t="s">
+      <c r="AH11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AI11" s="19" t="s">
+      <c r="AI11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AJ11" s="30" t="s">
+      <c r="AJ11" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AK11" s="31" t="s">
+      <c r="AK11" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="I16" s="7"/>
-      <c r="W16" s="7"/>
-    </row>
-    <row r="18" spans="15:18">
-      <c r="O18" s="22"/>
-    </row>
-    <row r="22" spans="15:18">
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-    </row>
-    <row r="23" spans="15:18">
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="32">
